--- a/input/dynamic_data/season_17/forecasting_method/average/argentina/forecast_point_GW23.xlsx
+++ b/input/dynamic_data/season_17/forecasting_method/average/argentina/forecast_point_GW23.xlsx
@@ -4473,37 +4473,37 @@
         <v>115.0</v>
       </c>
       <c r="B116" t="n">
-        <v>0.33324605250649997</v>
+        <v>0.0</v>
       </c>
       <c r="C116" t="n">
-        <v>0.33324605250649997</v>
+        <v>0.0</v>
       </c>
       <c r="D116" t="n">
-        <v>0.33324605250649997</v>
+        <v>0.0</v>
       </c>
       <c r="E116" t="n">
-        <v>0.33324605250649997</v>
+        <v>0.0</v>
       </c>
       <c r="F116" t="n">
-        <v>0.33324605250649997</v>
+        <v>0.0</v>
       </c>
       <c r="G116" t="n">
-        <v>0.33324605250649997</v>
+        <v>0.0</v>
       </c>
       <c r="H116" t="n">
-        <v>0.33324605250649997</v>
+        <v>0.0</v>
       </c>
       <c r="I116" t="n">
-        <v>0.33324605250649997</v>
+        <v>0.0</v>
       </c>
       <c r="J116" t="n">
-        <v>0.33324605250649997</v>
+        <v>0.0</v>
       </c>
       <c r="K116" t="n">
-        <v>0.33324605250649997</v>
+        <v>0.0</v>
       </c>
       <c r="L116" t="n">
-        <v>0.33324605250649997</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="117">
@@ -4739,37 +4739,37 @@
         <v>122.0</v>
       </c>
       <c r="B123" t="n">
-        <v>1.03065789435</v>
+        <v>0.0</v>
       </c>
       <c r="C123" t="n">
-        <v>1.03065789435</v>
+        <v>0.0</v>
       </c>
       <c r="D123" t="n">
-        <v>1.03065789435</v>
+        <v>0.0</v>
       </c>
       <c r="E123" t="n">
-        <v>1.03065789435</v>
+        <v>0.0</v>
       </c>
       <c r="F123" t="n">
-        <v>1.03065789435</v>
+        <v>0.0</v>
       </c>
       <c r="G123" t="n">
-        <v>1.03065789435</v>
+        <v>0.0</v>
       </c>
       <c r="H123" t="n">
-        <v>1.03065789435</v>
+        <v>0.0</v>
       </c>
       <c r="I123" t="n">
-        <v>1.03065789435</v>
+        <v>0.0</v>
       </c>
       <c r="J123" t="n">
-        <v>1.03065789435</v>
+        <v>0.0</v>
       </c>
       <c r="K123" t="n">
-        <v>1.03065789435</v>
+        <v>0.0</v>
       </c>
       <c r="L123" t="n">
-        <v>1.03065789435</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="124">
@@ -5537,37 +5537,37 @@
         <v>143.0</v>
       </c>
       <c r="B144" t="n">
-        <v>1.026292105209</v>
+        <v>0.0</v>
       </c>
       <c r="C144" t="n">
-        <v>1.026292105209</v>
+        <v>0.0</v>
       </c>
       <c r="D144" t="n">
-        <v>1.026292105209</v>
+        <v>0.0</v>
       </c>
       <c r="E144" t="n">
-        <v>1.026292105209</v>
+        <v>0.0</v>
       </c>
       <c r="F144" t="n">
-        <v>1.026292105209</v>
+        <v>0.0</v>
       </c>
       <c r="G144" t="n">
-        <v>1.026292105209</v>
+        <v>0.0</v>
       </c>
       <c r="H144" t="n">
-        <v>1.026292105209</v>
+        <v>0.0</v>
       </c>
       <c r="I144" t="n">
-        <v>1.026292105209</v>
+        <v>0.0</v>
       </c>
       <c r="J144" t="n">
-        <v>1.026292105209</v>
+        <v>0.0</v>
       </c>
       <c r="K144" t="n">
-        <v>1.026292105209</v>
+        <v>0.0</v>
       </c>
       <c r="L144" t="n">
-        <v>1.026292105209</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="145">
@@ -5993,37 +5993,37 @@
         <v>155.0</v>
       </c>
       <c r="B156" t="n">
-        <v>0.6095833334916666</v>
+        <v>0.0</v>
       </c>
       <c r="C156" t="n">
-        <v>0.6095833334916666</v>
+        <v>0.0</v>
       </c>
       <c r="D156" t="n">
-        <v>0.6095833334916666</v>
+        <v>0.0</v>
       </c>
       <c r="E156" t="n">
-        <v>0.6095833334916666</v>
+        <v>0.0</v>
       </c>
       <c r="F156" t="n">
-        <v>0.6095833334916666</v>
+        <v>0.0</v>
       </c>
       <c r="G156" t="n">
-        <v>0.6095833334916666</v>
+        <v>0.0</v>
       </c>
       <c r="H156" t="n">
-        <v>0.6095833334916666</v>
+        <v>0.0</v>
       </c>
       <c r="I156" t="n">
-        <v>0.6095833334916666</v>
+        <v>0.0</v>
       </c>
       <c r="J156" t="n">
-        <v>0.6095833334916666</v>
+        <v>0.0</v>
       </c>
       <c r="K156" t="n">
-        <v>0.6095833334916666</v>
+        <v>0.0</v>
       </c>
       <c r="L156" t="n">
-        <v>0.6095833334916666</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="157">
@@ -6601,37 +6601,37 @@
         <v>171.0</v>
       </c>
       <c r="B172" t="n">
-        <v>0.322525</v>
+        <v>0.0</v>
       </c>
       <c r="C172" t="n">
-        <v>0.322525</v>
+        <v>0.0</v>
       </c>
       <c r="D172" t="n">
-        <v>0.322525</v>
+        <v>0.0</v>
       </c>
       <c r="E172" t="n">
-        <v>0.322525</v>
+        <v>0.0</v>
       </c>
       <c r="F172" t="n">
-        <v>0.322525</v>
+        <v>0.0</v>
       </c>
       <c r="G172" t="n">
-        <v>0.322525</v>
+        <v>0.0</v>
       </c>
       <c r="H172" t="n">
-        <v>0.322525</v>
+        <v>0.0</v>
       </c>
       <c r="I172" t="n">
-        <v>0.322525</v>
+        <v>0.0</v>
       </c>
       <c r="J172" t="n">
-        <v>0.322525</v>
+        <v>0.0</v>
       </c>
       <c r="K172" t="n">
-        <v>0.322525</v>
+        <v>0.0</v>
       </c>
       <c r="L172" t="n">
-        <v>0.322525</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="173">
@@ -7513,37 +7513,37 @@
         <v>195.0</v>
       </c>
       <c r="B196" t="n">
-        <v>0.6769736840299999</v>
+        <v>0.0</v>
       </c>
       <c r="C196" t="n">
-        <v>0.6769736840299999</v>
+        <v>0.0</v>
       </c>
       <c r="D196" t="n">
-        <v>0.6769736840299999</v>
+        <v>0.0</v>
       </c>
       <c r="E196" t="n">
-        <v>0.6769736840299999</v>
+        <v>0.0</v>
       </c>
       <c r="F196" t="n">
-        <v>0.6769736840299999</v>
+        <v>0.0</v>
       </c>
       <c r="G196" t="n">
-        <v>0.6769736840299999</v>
+        <v>0.0</v>
       </c>
       <c r="H196" t="n">
-        <v>0.6769736840299999</v>
+        <v>0.0</v>
       </c>
       <c r="I196" t="n">
-        <v>0.6769736840299999</v>
+        <v>0.0</v>
       </c>
       <c r="J196" t="n">
-        <v>0.6769736840299999</v>
+        <v>0.0</v>
       </c>
       <c r="K196" t="n">
-        <v>0.6769736840299999</v>
+        <v>0.0</v>
       </c>
       <c r="L196" t="n">
-        <v>0.6769736840299999</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="197">
@@ -7893,37 +7893,37 @@
         <v>205.0</v>
       </c>
       <c r="B206" t="n">
-        <v>2.119425000693</v>
+        <v>0.0</v>
       </c>
       <c r="C206" t="n">
-        <v>2.119425000693</v>
+        <v>0.0</v>
       </c>
       <c r="D206" t="n">
-        <v>2.119425000693</v>
+        <v>0.0</v>
       </c>
       <c r="E206" t="n">
-        <v>2.119425000693</v>
+        <v>0.0</v>
       </c>
       <c r="F206" t="n">
-        <v>2.119425000693</v>
+        <v>0.0</v>
       </c>
       <c r="G206" t="n">
-        <v>2.119425000693</v>
+        <v>0.0</v>
       </c>
       <c r="H206" t="n">
-        <v>2.119425000693</v>
+        <v>0.0</v>
       </c>
       <c r="I206" t="n">
-        <v>2.119425000693</v>
+        <v>0.0</v>
       </c>
       <c r="J206" t="n">
-        <v>2.119425000693</v>
+        <v>0.0</v>
       </c>
       <c r="K206" t="n">
-        <v>2.119425000693</v>
+        <v>0.0</v>
       </c>
       <c r="L206" t="n">
-        <v>2.119425000693</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="207">
@@ -8197,37 +8197,37 @@
         <v>213.0</v>
       </c>
       <c r="B214" t="n">
-        <v>0.2950416667313333</v>
+        <v>0.0</v>
       </c>
       <c r="C214" t="n">
-        <v>0.2950416667313333</v>
+        <v>0.0</v>
       </c>
       <c r="D214" t="n">
-        <v>0.2950416667313333</v>
+        <v>0.0</v>
       </c>
       <c r="E214" t="n">
-        <v>0.2950416667313333</v>
+        <v>0.0</v>
       </c>
       <c r="F214" t="n">
-        <v>0.2950416667313333</v>
+        <v>0.0</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2950416667313333</v>
+        <v>0.0</v>
       </c>
       <c r="H214" t="n">
-        <v>0.2950416667313333</v>
+        <v>0.0</v>
       </c>
       <c r="I214" t="n">
-        <v>0.2950416667313333</v>
+        <v>0.0</v>
       </c>
       <c r="J214" t="n">
-        <v>0.2950416667313333</v>
+        <v>0.0</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2950416667313333</v>
+        <v>0.0</v>
       </c>
       <c r="L214" t="n">
-        <v>0.2950416667313333</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="215">
@@ -8577,37 +8577,37 @@
         <v>223.0</v>
       </c>
       <c r="B224" t="n">
-        <v>0.59565</v>
+        <v>0.0</v>
       </c>
       <c r="C224" t="n">
-        <v>0.59565</v>
+        <v>0.0</v>
       </c>
       <c r="D224" t="n">
-        <v>0.59565</v>
+        <v>0.0</v>
       </c>
       <c r="E224" t="n">
-        <v>0.59565</v>
+        <v>0.0</v>
       </c>
       <c r="F224" t="n">
-        <v>0.59565</v>
+        <v>0.0</v>
       </c>
       <c r="G224" t="n">
-        <v>0.59565</v>
+        <v>0.0</v>
       </c>
       <c r="H224" t="n">
-        <v>0.59565</v>
+        <v>0.0</v>
       </c>
       <c r="I224" t="n">
-        <v>0.59565</v>
+        <v>0.0</v>
       </c>
       <c r="J224" t="n">
-        <v>0.59565</v>
+        <v>0.0</v>
       </c>
       <c r="K224" t="n">
-        <v>0.59565</v>
+        <v>0.0</v>
       </c>
       <c r="L224" t="n">
-        <v>0.59565</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="225">
@@ -8653,37 +8653,37 @@
         <v>225.0</v>
       </c>
       <c r="B226" t="n">
-        <v>0.2857916666666666</v>
+        <v>0.0</v>
       </c>
       <c r="C226" t="n">
-        <v>0.2857916666666666</v>
+        <v>0.0</v>
       </c>
       <c r="D226" t="n">
-        <v>0.2857916666666666</v>
+        <v>0.0</v>
       </c>
       <c r="E226" t="n">
-        <v>0.2857916666666666</v>
+        <v>0.0</v>
       </c>
       <c r="F226" t="n">
-        <v>0.2857916666666666</v>
+        <v>0.0</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2857916666666666</v>
+        <v>0.0</v>
       </c>
       <c r="H226" t="n">
-        <v>0.2857916666666666</v>
+        <v>0.0</v>
       </c>
       <c r="I226" t="n">
-        <v>0.2857916666666666</v>
+        <v>0.0</v>
       </c>
       <c r="J226" t="n">
-        <v>0.2857916666666666</v>
+        <v>0.0</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2857916666666666</v>
+        <v>0.0</v>
       </c>
       <c r="L226" t="n">
-        <v>0.2857916666666666</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="227">
@@ -8995,37 +8995,37 @@
         <v>234.0</v>
       </c>
       <c r="B235" t="n">
-        <v>0.34212499986</v>
+        <v>0.0</v>
       </c>
       <c r="C235" t="n">
-        <v>0.34212499986</v>
+        <v>0.0</v>
       </c>
       <c r="D235" t="n">
-        <v>0.34212499986</v>
+        <v>0.0</v>
       </c>
       <c r="E235" t="n">
-        <v>0.34212499986</v>
+        <v>0.0</v>
       </c>
       <c r="F235" t="n">
-        <v>0.34212499986</v>
+        <v>0.0</v>
       </c>
       <c r="G235" t="n">
-        <v>0.34212499986</v>
+        <v>0.0</v>
       </c>
       <c r="H235" t="n">
-        <v>0.34212499986</v>
+        <v>0.0</v>
       </c>
       <c r="I235" t="n">
-        <v>0.34212499986</v>
+        <v>0.0</v>
       </c>
       <c r="J235" t="n">
-        <v>0.34212499986</v>
+        <v>0.0</v>
       </c>
       <c r="K235" t="n">
-        <v>0.34212499986</v>
+        <v>0.0</v>
       </c>
       <c r="L235" t="n">
-        <v>0.34212499986</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="236">
@@ -10401,37 +10401,37 @@
         <v>271.0</v>
       </c>
       <c r="B272" t="n">
-        <v>1.2366666660666668</v>
+        <v>0.0</v>
       </c>
       <c r="C272" t="n">
-        <v>1.2366666660666668</v>
+        <v>0.0</v>
       </c>
       <c r="D272" t="n">
-        <v>1.2366666660666668</v>
+        <v>0.0</v>
       </c>
       <c r="E272" t="n">
-        <v>1.2366666660666668</v>
+        <v>0.0</v>
       </c>
       <c r="F272" t="n">
-        <v>1.2366666660666668</v>
+        <v>0.0</v>
       </c>
       <c r="G272" t="n">
-        <v>1.2366666660666668</v>
+        <v>0.0</v>
       </c>
       <c r="H272" t="n">
-        <v>1.2366666660666668</v>
+        <v>0.0</v>
       </c>
       <c r="I272" t="n">
-        <v>1.2366666660666668</v>
+        <v>0.0</v>
       </c>
       <c r="J272" t="n">
-        <v>1.2366666660666668</v>
+        <v>0.0</v>
       </c>
       <c r="K272" t="n">
-        <v>1.2366666660666668</v>
+        <v>0.0</v>
       </c>
       <c r="L272" t="n">
-        <v>1.2366666660666668</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="273">
@@ -13061,37 +13061,37 @@
         <v>341.0</v>
       </c>
       <c r="B342" t="n">
-        <v>0.6733631576419999</v>
+        <v>0.0</v>
       </c>
       <c r="C342" t="n">
-        <v>0.6733631576419999</v>
+        <v>0.0</v>
       </c>
       <c r="D342" t="n">
-        <v>0.6733631576419999</v>
+        <v>0.0</v>
       </c>
       <c r="E342" t="n">
-        <v>0.6733631576419999</v>
+        <v>0.0</v>
       </c>
       <c r="F342" t="n">
-        <v>0.6733631576419999</v>
+        <v>0.0</v>
       </c>
       <c r="G342" t="n">
-        <v>0.6733631576419999</v>
+        <v>0.0</v>
       </c>
       <c r="H342" t="n">
-        <v>0.6733631576419999</v>
+        <v>0.0</v>
       </c>
       <c r="I342" t="n">
-        <v>0.6733631576419999</v>
+        <v>0.0</v>
       </c>
       <c r="J342" t="n">
-        <v>0.6733631576419999</v>
+        <v>0.0</v>
       </c>
       <c r="K342" t="n">
-        <v>0.6733631576419999</v>
+        <v>0.0</v>
       </c>
       <c r="L342" t="n">
-        <v>0.6733631576419999</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="343">
@@ -16405,37 +16405,37 @@
         <v>429.0</v>
       </c>
       <c r="B430" t="n">
-        <v>5.430019736295</v>
+        <v>0.0</v>
       </c>
       <c r="C430" t="n">
-        <v>5.430019736295</v>
+        <v>0.0</v>
       </c>
       <c r="D430" t="n">
-        <v>5.430019736295</v>
+        <v>0.0</v>
       </c>
       <c r="E430" t="n">
-        <v>5.430019736295</v>
+        <v>0.0</v>
       </c>
       <c r="F430" t="n">
-        <v>5.430019736295</v>
+        <v>0.0</v>
       </c>
       <c r="G430" t="n">
-        <v>5.430019736295</v>
+        <v>0.0</v>
       </c>
       <c r="H430" t="n">
-        <v>5.430019736295</v>
+        <v>0.0</v>
       </c>
       <c r="I430" t="n">
-        <v>5.430019736295</v>
+        <v>0.0</v>
       </c>
       <c r="J430" t="n">
-        <v>5.430019736295</v>
+        <v>0.0</v>
       </c>
       <c r="K430" t="n">
-        <v>5.430019736295</v>
+        <v>0.0</v>
       </c>
       <c r="L430" t="n">
-        <v>5.430019736295</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="431">
@@ -18761,37 +18761,37 @@
         <v>491.0</v>
       </c>
       <c r="B492" t="n">
-        <v>0.345726315648</v>
+        <v>0.0</v>
       </c>
       <c r="C492" t="n">
-        <v>0.345726315648</v>
+        <v>0.0</v>
       </c>
       <c r="D492" t="n">
-        <v>0.345726315648</v>
+        <v>0.0</v>
       </c>
       <c r="E492" t="n">
-        <v>0.345726315648</v>
+        <v>0.0</v>
       </c>
       <c r="F492" t="n">
-        <v>0.345726315648</v>
+        <v>0.0</v>
       </c>
       <c r="G492" t="n">
-        <v>0.345726315648</v>
+        <v>0.0</v>
       </c>
       <c r="H492" t="n">
-        <v>0.345726315648</v>
+        <v>0.0</v>
       </c>
       <c r="I492" t="n">
-        <v>0.345726315648</v>
+        <v>0.0</v>
       </c>
       <c r="J492" t="n">
-        <v>0.345726315648</v>
+        <v>0.0</v>
       </c>
       <c r="K492" t="n">
-        <v>0.345726315648</v>
+        <v>0.0</v>
       </c>
       <c r="L492" t="n">
-        <v>0.345726315648</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="493">
@@ -20965,37 +20965,37 @@
         <v>549.0</v>
       </c>
       <c r="B550" t="n">
-        <v>3.0282276328920004</v>
+        <v>0.0</v>
       </c>
       <c r="C550" t="n">
-        <v>3.0282276328920004</v>
+        <v>0.0</v>
       </c>
       <c r="D550" t="n">
-        <v>3.0282276328920004</v>
+        <v>0.0</v>
       </c>
       <c r="E550" t="n">
-        <v>3.0282276328920004</v>
+        <v>0.0</v>
       </c>
       <c r="F550" t="n">
-        <v>3.0282276328920004</v>
+        <v>0.0</v>
       </c>
       <c r="G550" t="n">
-        <v>3.0282276328920004</v>
+        <v>0.0</v>
       </c>
       <c r="H550" t="n">
-        <v>3.0282276328920004</v>
+        <v>0.0</v>
       </c>
       <c r="I550" t="n">
-        <v>3.0282276328920004</v>
+        <v>0.0</v>
       </c>
       <c r="J550" t="n">
-        <v>3.0282276328920004</v>
+        <v>0.0</v>
       </c>
       <c r="K550" t="n">
-        <v>3.0282276328920004</v>
+        <v>0.0</v>
       </c>
       <c r="L550" t="n">
-        <v>3.0282276328920004</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="551">
@@ -22219,37 +22219,37 @@
         <v>582.0</v>
       </c>
       <c r="B583" t="n">
-        <v>0.97755</v>
+        <v>0.0</v>
       </c>
       <c r="C583" t="n">
-        <v>0.97755</v>
+        <v>0.0</v>
       </c>
       <c r="D583" t="n">
-        <v>0.97755</v>
+        <v>0.0</v>
       </c>
       <c r="E583" t="n">
-        <v>0.97755</v>
+        <v>0.0</v>
       </c>
       <c r="F583" t="n">
-        <v>0.97755</v>
+        <v>0.0</v>
       </c>
       <c r="G583" t="n">
-        <v>0.97755</v>
+        <v>0.0</v>
       </c>
       <c r="H583" t="n">
-        <v>0.97755</v>
+        <v>0.0</v>
       </c>
       <c r="I583" t="n">
-        <v>0.97755</v>
+        <v>0.0</v>
       </c>
       <c r="J583" t="n">
-        <v>0.97755</v>
+        <v>0.0</v>
       </c>
       <c r="K583" t="n">
-        <v>0.97755</v>
+        <v>0.0</v>
       </c>
       <c r="L583" t="n">
-        <v>0.97755</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="584">
@@ -22257,37 +22257,37 @@
         <v>583.0</v>
       </c>
       <c r="B584" t="n">
-        <v>0.347374999965</v>
+        <v>0.0</v>
       </c>
       <c r="C584" t="n">
-        <v>0.347374999965</v>
+        <v>0.0</v>
       </c>
       <c r="D584" t="n">
-        <v>0.347374999965</v>
+        <v>0.0</v>
       </c>
       <c r="E584" t="n">
-        <v>0.347374999965</v>
+        <v>0.0</v>
       </c>
       <c r="F584" t="n">
-        <v>0.347374999965</v>
+        <v>0.0</v>
       </c>
       <c r="G584" t="n">
-        <v>0.347374999965</v>
+        <v>0.0</v>
       </c>
       <c r="H584" t="n">
-        <v>0.347374999965</v>
+        <v>0.0</v>
       </c>
       <c r="I584" t="n">
-        <v>0.347374999965</v>
+        <v>0.0</v>
       </c>
       <c r="J584" t="n">
-        <v>0.347374999965</v>
+        <v>0.0</v>
       </c>
       <c r="K584" t="n">
-        <v>0.347374999965</v>
+        <v>0.0</v>
       </c>
       <c r="L584" t="n">
-        <v>0.347374999965</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="585">
@@ -22941,37 +22941,37 @@
         <v>601.0</v>
       </c>
       <c r="B602" t="n">
-        <v>0.5836166666666666</v>
+        <v>0.0</v>
       </c>
       <c r="C602" t="n">
-        <v>0.5836166666666666</v>
+        <v>0.0</v>
       </c>
       <c r="D602" t="n">
-        <v>0.5836166666666666</v>
+        <v>0.0</v>
       </c>
       <c r="E602" t="n">
-        <v>0.5836166666666666</v>
+        <v>0.0</v>
       </c>
       <c r="F602" t="n">
-        <v>0.5836166666666666</v>
+        <v>0.0</v>
       </c>
       <c r="G602" t="n">
-        <v>0.5836166666666666</v>
+        <v>0.0</v>
       </c>
       <c r="H602" t="n">
-        <v>0.5836166666666666</v>
+        <v>0.0</v>
       </c>
       <c r="I602" t="n">
-        <v>0.5836166666666666</v>
+        <v>0.0</v>
       </c>
       <c r="J602" t="n">
-        <v>0.5836166666666666</v>
+        <v>0.0</v>
       </c>
       <c r="K602" t="n">
-        <v>0.5836166666666666</v>
+        <v>0.0</v>
       </c>
       <c r="L602" t="n">
-        <v>0.5836166666666666</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="603">
@@ -23625,37 +23625,37 @@
         <v>619.0</v>
       </c>
       <c r="B620" t="n">
-        <v>4.059358331363833</v>
+        <v>0.0</v>
       </c>
       <c r="C620" t="n">
-        <v>4.059358331363833</v>
+        <v>0.0</v>
       </c>
       <c r="D620" t="n">
-        <v>4.059358331363833</v>
+        <v>0.0</v>
       </c>
       <c r="E620" t="n">
-        <v>4.059358331363833</v>
+        <v>0.0</v>
       </c>
       <c r="F620" t="n">
-        <v>4.059358331363833</v>
+        <v>0.0</v>
       </c>
       <c r="G620" t="n">
-        <v>4.059358331363833</v>
+        <v>0.0</v>
       </c>
       <c r="H620" t="n">
-        <v>4.059358331363833</v>
+        <v>0.0</v>
       </c>
       <c r="I620" t="n">
-        <v>4.059358331363833</v>
+        <v>0.0</v>
       </c>
       <c r="J620" t="n">
-        <v>4.059358331363833</v>
+        <v>0.0</v>
       </c>
       <c r="K620" t="n">
-        <v>4.059358331363833</v>
+        <v>0.0</v>
       </c>
       <c r="L620" t="n">
-        <v>4.059358331363833</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="621">
